--- a/Data/EC/NIT-9005006531.xlsx
+++ b/Data/EC/NIT-9005006531.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0038F882-9257-449E-8C34-6C443D1DFC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC3C84E-89CE-44C9-9D82-5F6B056D93E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEC28C1A-D411-49A9-822A-E83479CD72AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{323F21EE-57F4-46D9-AA0B-49B06B31ED62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,19 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1052968526</t>
-  </si>
-  <si>
-    <t>SILVIA PATRICIA RODRIGUEZ ALARCON</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1052983121</t>
-  </si>
-  <si>
-    <t>LULY MARCELA SANGUINETE VILORIA</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
     <t>1143350615</t>
   </si>
   <si>
     <t>ANA JESUSITA CABARCAS MERLANO</t>
   </si>
   <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
     <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,22 +176,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +391,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +435,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +491,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2492A4D-2C6C-F9C5-A115-461FB9E621F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AD9A86-E1F6-F776-F56F-93128D840662}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBBE5CE-D354-4AC9-91B2-FB803CD0665E}">
-  <dimension ref="B2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF74E90-293B-4ADF-AB49-86C284DBB2EA}">
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -872,7 +854,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -885,7 +867,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +912,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +944,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>165050</v>
+        <v>159120</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +960,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +997,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1038,10 +1020,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1898</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1488240</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1052,144 +1034,75 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>2016</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1512000</v>
+        <v>1488240</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="18">
-        <v>2016</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1512000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="F18" s="24">
         <v>55120</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G18" s="24">
         <v>1488240</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1488240</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G21" s="24">
-        <v>1488240</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
